--- a/unpolished/PyHacks/HebrewRoots2.xlsx
+++ b/unpolished/PyHacks/HebrewRoots2.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\github.com\kenglish-pfi\tenebrarum_minutatim\unpolished\PyHacks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="144" windowWidth="14340" windowHeight="4536" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="14340" windowHeight="4530" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Letters" sheetId="2" r:id="rId1"/>
     <sheet name="Alef Pairs" sheetId="1" r:id="rId2"/>
     <sheet name="Fundamental" sheetId="3" r:id="rId3"/>
     <sheet name="Sun Moon Day Night" sheetId="4" r:id="rId4"/>
-    <sheet name="References" sheetId="5" r:id="rId5"/>
+    <sheet name="HardSoftStrongWeak" sheetId="6" r:id="rId5"/>
+    <sheet name="References" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="479">
   <si>
     <t>אב</t>
   </si>
@@ -1425,12 +1431,42 @@
   </si>
   <si>
     <t>Tet and Tav, Shin (Sin) and Samek, Koph and Kaph, and Ayin and Aleph</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>soft</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>weak</t>
+  </si>
+  <si>
+    <t>קָשֶׁה</t>
+  </si>
+  <si>
+    <t>רַך</t>
+  </si>
+  <si>
+    <t>חָזָק</t>
+  </si>
+  <si>
+    <t>חלש</t>
+  </si>
+  <si>
+    <t>QwShHe</t>
+  </si>
+  <si>
+    <t>RV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1529,7 +1565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1574,6 +1610,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1583,6 +1625,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1631,7 +1676,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1664,9 +1709,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1699,6 +1761,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1881,12 +1960,12 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.21875" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -1898,7 +1977,7 @@
         <v>'א',</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>128</v>
       </c>
@@ -1910,7 +1989,7 @@
         <v>'ב',</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>129</v>
       </c>
@@ -1922,7 +2001,7 @@
         <v>'ג',</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>130</v>
       </c>
@@ -1934,7 +2013,7 @@
         <v>'ד',</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>132</v>
       </c>
@@ -1946,7 +2025,7 @@
         <v>'ה',</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>133</v>
       </c>
@@ -1958,7 +2037,7 @@
         <v>'ו',</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>134</v>
       </c>
@@ -1970,7 +2049,7 @@
         <v>'ז',</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>135</v>
       </c>
@@ -1982,7 +2061,7 @@
         <v>'ח',</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>136</v>
       </c>
@@ -1994,7 +2073,7 @@
         <v>'ט',</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>137</v>
       </c>
@@ -2006,7 +2085,7 @@
         <v>'י',</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>138</v>
       </c>
@@ -2018,7 +2097,7 @@
         <v>'כ',</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>141</v>
       </c>
@@ -2030,7 +2109,7 @@
         <v>'ל',</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>142</v>
       </c>
@@ -2042,7 +2121,7 @@
         <v>'מ',</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>143</v>
       </c>
@@ -2054,7 +2133,7 @@
         <v>'נ',</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>144</v>
       </c>
@@ -2066,7 +2145,7 @@
         <v>'ס',</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>146</v>
       </c>
@@ -2078,7 +2157,7 @@
         <v>'ע',</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>147</v>
       </c>
@@ -2090,7 +2169,7 @@
         <v>'פ',</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>149</v>
       </c>
@@ -2102,7 +2181,7 @@
         <v>'צ',</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>150</v>
       </c>
@@ -2114,7 +2193,7 @@
         <v>'ק',</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>151</v>
       </c>
@@ -2126,7 +2205,7 @@
         <v>'ר',</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>152</v>
       </c>
@@ -2138,7 +2217,7 @@
         <v>'ש',</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>153</v>
       </c>
@@ -2160,18 +2239,18 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="33.21875" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
-    <col min="11" max="11" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2197,7 +2276,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2229,7 +2308,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2246,7 +2325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2263,7 +2342,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2280,7 +2359,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2297,7 +2376,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2323,7 +2402,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2340,7 +2419,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2357,7 +2436,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2374,7 +2453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2386,7 +2465,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -2403,7 +2482,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -2420,7 +2499,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -2432,7 +2511,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -2449,7 +2528,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -2461,7 +2540,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -2478,7 +2557,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -2495,7 +2574,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -2512,7 +2591,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -2524,7 +2603,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -2541,7 +2620,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -2553,7 +2632,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -2570,7 +2649,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -2587,7 +2666,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -2604,7 +2683,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -2632,21 +2711,21 @@
   <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" customWidth="1"/>
-    <col min="7" max="7" width="1.5546875" customWidth="1"/>
-    <col min="10" max="10" width="2.33203125" customWidth="1"/>
-    <col min="14" max="14" width="2.33203125" customWidth="1"/>
-    <col min="17" max="17" width="2.109375" customWidth="1"/>
-    <col min="21" max="21" width="2.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="7" max="7" width="1.5703125" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" customWidth="1"/>
+    <col min="14" max="14" width="2.28515625" customWidth="1"/>
+    <col min="17" max="17" width="2.140625" customWidth="1"/>
+    <col min="21" max="21" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>388</v>
       </c>
@@ -2699,7 +2778,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>389</v>
       </c>
@@ -2752,7 +2831,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>390</v>
       </c>
@@ -2805,7 +2884,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>391</v>
       </c>
@@ -2858,7 +2937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>392</v>
       </c>
@@ -2911,7 +2990,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>393</v>
       </c>
@@ -2964,7 +3043,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>394</v>
       </c>
@@ -3017,7 +3096,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>395</v>
       </c>
@@ -3070,7 +3149,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>396</v>
       </c>
@@ -3123,7 +3202,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>397</v>
       </c>
@@ -3176,7 +3255,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>398</v>
       </c>
@@ -3229,7 +3308,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>379</v>
       </c>
@@ -3282,7 +3361,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>380</v>
       </c>
@@ -3335,7 +3414,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>381</v>
       </c>
@@ -3394,7 +3473,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>382</v>
       </c>
@@ -3447,7 +3526,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>383</v>
       </c>
@@ -3500,7 +3579,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>384</v>
       </c>
@@ -3553,7 +3632,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>385</v>
       </c>
@@ -3606,7 +3685,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>386</v>
       </c>
@@ -3659,7 +3738,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>387</v>
       </c>
@@ -3712,7 +3791,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
         <v>399</v>
       </c>
@@ -3720,7 +3799,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
         <v>400</v>
       </c>
@@ -3728,7 +3807,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>405</v>
       </c>
@@ -3736,7 +3815,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
         <v>411</v>
       </c>
@@ -3758,12 +3837,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>462</v>
       </c>
@@ -3774,7 +3853,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>464</v>
       </c>
@@ -3782,102 +3861,102 @@
         <v>466</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>461</v>
       </c>
@@ -3889,18 +3968,74 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>476</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.6640625" customWidth="1"/>
+    <col min="1" max="1" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>468</v>
       </c>
